--- a/TotalCanzRecall/calibration.xlsx
+++ b/TotalCanzRecall/calibration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Users\Jim\Documents\git\lego-mindstorms-nxt\TotalCanzRecall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB1FF991-E436-4D58-BD06-8F4C2DF7BEF0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CFE8A3-9AAC-45F5-ABD1-4F63D8502732}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17385" windowHeight="12030" xr2:uid="{9AAD0E2B-6243-4B4D-AC6D-D685907407FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>right</t>
   </si>
@@ -68,11 +68,17 @@
   <si>
     <t>CW</t>
   </si>
+  <si>
+    <t>empirical</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,6 +143,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42592810311848067"/>
+          <c:y val="3.3333333333333333E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -269,6 +284,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>CW</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -501,6 +519,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1106,15 +1155,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1439,15 +1488,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EC01BF-564F-4CB9-A898-60CD8CAF1049}">
-  <dimension ref="B3:J24"/>
+  <dimension ref="B3:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -1469,8 +1521,11 @@
       <c r="I3" t="s">
         <v>8</v>
       </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1496,8 +1551,16 @@
         <f>AVERAGE(C4:H4)</f>
         <v>5849.833333333333</v>
       </c>
+      <c r="J4">
+        <f>I4/3000</f>
+        <v>1.9499444444444443</v>
+      </c>
+      <c r="K4">
+        <f>I5/(J4)</f>
+        <v>3045.3004359098554</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1523,31 +1586,41 @@
         <f>AVERAGE(C5:H5)</f>
         <v>5938.166666666667</v>
       </c>
+      <c r="J5">
+        <f>I5/3000</f>
+        <v>1.9793888888888891</v>
+      </c>
+      <c r="K5">
+        <f>I5/J5</f>
+        <v>3000</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="I6">
-        <f>AVERAGE(I4:I5)/3000</f>
-        <v>1.9646666666666666</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
+      <c r="J6">
+        <f>360/(2*PI()*27.45)</f>
+        <v>2.0872779421887913</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>(I5-I4)/3000/2</f>
-        <v>1.4722222222222324E-2</v>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <f>(I4-I5)/3000</f>
+        <v>-2.9444444444444648E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I11">
         <f>360/(PI()*54.8)</f>
         <v>2.0910868435431507</v>
@@ -1661,6 +1734,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>